--- a/装修费用.xlsx
+++ b/装修费用.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -356,9 +356,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>装修公司退款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.1.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳妆台+沙发床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>硬装：121123.2
-软装：41107.92
-总计：162,231.12</t>
+软装：42987.92
+总计：164,111.12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -854,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,8 +1058,12 @@
     </row>
     <row r="15" spans="1:4" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="10">
+        <v>-782</v>
+      </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1057,7 +1073,7 @@
       </c>
       <c r="C16" s="3">
         <f>SUM(C2:C15)</f>
-        <v>121123.2</v>
+        <v>120341.2</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -1392,9 +1408,15 @@
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1880</v>
+      </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1403,8 +1425,8 @@
         <v>33</v>
       </c>
       <c r="C46" s="3">
-        <f ca="1">SUM(C19:C46)</f>
-        <v>41107.919999999998</v>
+        <f>SUM(C19:C45)</f>
+        <v>42987.92</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -1423,7 +1445,7 @@
     <row r="49" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="16"/>
